--- a/PlantTransTwo/PlantTransII_Exp2.xlsx
+++ b/PlantTransTwo/PlantTransII_Exp2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipburnham/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipburnham/Documents/GitHub/Dissertation/PlantTransTwo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">

--- a/PlantTransTwo/PlantTransII_Exp2.xlsx
+++ b/PlantTransTwo/PlantTransII_Exp2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="26240" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">Treatment </t>
-  </si>
-  <si>
-    <t>viralLoad</t>
-  </si>
-  <si>
-    <t>virusPrev</t>
   </si>
   <si>
     <t>Fed (Y/N)</t>
@@ -60,6 +54,27 @@
   </si>
   <si>
     <t>Dead?</t>
+  </si>
+  <si>
+    <t>Extract</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>dil.factor</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>exp</t>
   </si>
 </sst>
 </file>
@@ -396,987 +411,2260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I114" sqref="I114:I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>65</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>66</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>68</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
+      <c r="D4" s="1">
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>69</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>70</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>71</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>72</v>
       </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>73</v>
       </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>74</v>
       </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>75</v>
       </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>76</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
+      <c r="D12" s="1">
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>77</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
+      <c r="D13" s="1">
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>78</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
+      <c r="D14" s="1">
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>79</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
+      <c r="D15" s="1">
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>80</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>3.7344999999999997</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>81</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>2.3685</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>82</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>83</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>84</v>
       </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>85</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>86</v>
       </c>
-      <c r="B22" s="1">
-        <v>2</v>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>4.8094999999999999</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>87</v>
       </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>88</v>
       </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
+      <c r="D24" s="1">
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>89</v>
       </c>
-      <c r="B25" s="1">
-        <v>3</v>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
+      <c r="D25" s="1">
+        <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>1.8565</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>90</v>
       </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1">
         <v>3</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
+      <c r="D26" s="1">
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>91</v>
       </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>92</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
         <v>4</v>
       </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
+      <c r="D28" s="1">
+        <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>93</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
+      <c r="D29" s="1">
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>94</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
         <v>4</v>
       </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
+      <c r="D30" s="1">
+        <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>95</v>
       </c>
-      <c r="B31" s="1">
-        <v>1</v>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C31" s="1">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>2.645</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>96</v>
       </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>97</v>
       </c>
-      <c r="B33" s="1">
-        <v>1</v>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C33" s="1">
-        <v>5</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>5.0449999999999999</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>98</v>
       </c>
-      <c r="B34" s="1">
-        <v>2</v>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C34" s="1">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.8649999999999998</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>101</v>
       </c>
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>102</v>
       </c>
-      <c r="B36" s="1">
-        <v>3</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>103</v>
       </c>
-      <c r="B37" s="1">
-        <v>3</v>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C37" s="1">
-        <v>5</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4.5095000000000001</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>104</v>
       </c>
-      <c r="B38" s="1">
-        <v>3</v>
-      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>105</v>
       </c>
-      <c r="B39" s="1">
-        <v>3</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>106</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
         <v>4</v>
       </c>
-      <c r="C40" s="1">
-        <v>5</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
+      <c r="D40" s="1">
+        <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>108</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
         <v>4</v>
       </c>
-      <c r="C41" s="1">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>7</v>
+      <c r="D41" s="1">
+        <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>109</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
         <v>4</v>
       </c>
-      <c r="C42" s="1">
-        <v>5</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>7</v>
+      <c r="D42" s="1">
+        <v>5</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>110</v>
       </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1">
-        <v>10</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>111</v>
       </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="1">
-        <v>10</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>112</v>
       </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1">
-        <v>10</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>10</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>113</v>
       </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1">
-        <v>10</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>114</v>
       </c>
-      <c r="B47" s="1">
-        <v>2</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1">
-        <v>10</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>115</v>
       </c>
-      <c r="B48" s="1">
-        <v>2</v>
-      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1">
-        <v>10</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>116</v>
       </c>
-      <c r="B49" s="1">
-        <v>2</v>
-      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="1">
-        <v>10</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>10</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>117</v>
       </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="1">
-        <v>10</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>118</v>
       </c>
-      <c r="B51" s="1">
-        <v>3</v>
-      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="1">
-        <v>10</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>119</v>
       </c>
-      <c r="B52" s="1">
-        <v>3</v>
-      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="1">
-        <v>10</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>120</v>
       </c>
-      <c r="B53" s="1">
-        <v>3</v>
-      </c>
+      <c r="B53" s="1"/>
       <c r="C53" s="1">
-        <v>10</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>121</v>
       </c>
-      <c r="B54" s="1">
-        <v>3</v>
-      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="1">
-        <v>10</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>10</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>122</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1">
         <v>4</v>
       </c>
-      <c r="C55" s="1">
-        <v>10</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>7</v>
+      <c r="D55" s="1">
+        <v>10</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>123</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1">
         <v>4</v>
       </c>
-      <c r="C56" s="1">
-        <v>10</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>7</v>
+      <c r="D56" s="1">
+        <v>10</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>124</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1">
         <v>4</v>
       </c>
-      <c r="C57" s="1">
-        <v>10</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>7</v>
+      <c r="D57" s="1">
+        <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58">
+        <v>120</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>120</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61">
+        <v>21</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62">
+        <v>58</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63">
+        <v>76</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64">
+        <v>74</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>25</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65">
+        <v>72</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>26</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66">
+        <v>1.798</v>
+      </c>
+      <c r="H66">
+        <v>7</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>27</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67">
+        <v>75</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>28</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68">
+        <v>86</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>29</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70">
+        <v>2.266</v>
+      </c>
+      <c r="H70">
+        <v>15</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>31</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71">
+        <v>2.7670000000000003</v>
+      </c>
+      <c r="H71">
+        <v>56</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>32</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72">
+        <v>120</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>33</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73">
+        <v>101</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>34</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74">
+        <v>3.0934999999999997</v>
+      </c>
+      <c r="H74">
+        <v>17</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>35</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75">
+        <v>1.6325000000000001</v>
+      </c>
+      <c r="H75">
+        <v>73</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>36</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76">
+        <v>1.494</v>
+      </c>
+      <c r="H76">
+        <v>35</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>37</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77">
+        <v>84</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>38</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78">
+        <v>13</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>39</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79">
+        <v>30</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>40</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80">
+        <v>66</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>41</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81">
+        <v>4.1204999999999998</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>42</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82">
+        <v>15</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>43</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83">
+        <v>1.78</v>
+      </c>
+      <c r="H83">
+        <v>7</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>44</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84">
+        <v>1.0465</v>
+      </c>
+      <c r="H84">
+        <v>71</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>45</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85">
+        <v>41</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>46</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86">
+        <v>116</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>47</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87">
+        <v>3.5829999999999993</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>48</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88">
+        <v>3.6659999999999995</v>
+      </c>
+      <c r="H88">
+        <v>9</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>49</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89">
+        <v>83</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>50</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90">
+        <v>54</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>51</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91">
+        <v>3.1629999999999998</v>
+      </c>
+      <c r="H91">
+        <v>7</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>52</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92">
+        <v>1.6805000000000001</v>
+      </c>
+      <c r="H92">
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>53</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93">
+        <v>108</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>54</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="H94">
+        <v>89</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>55</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95">
+        <v>21</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>56</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96">
+        <v>60</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>57</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97">
+        <v>1.169</v>
+      </c>
+      <c r="H97">
+        <v>25</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>58</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98">
+        <v>89</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>60</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99">
+        <v>2.8115000000000001</v>
+      </c>
+      <c r="H99">
+        <v>43</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>62</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100">
+        <v>1.246</v>
+      </c>
+      <c r="H100">
+        <v>47</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>64</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101">
+        <v>120</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>9.109</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="G103" s="1">
+        <v>10.844499999999998</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>10.345000000000001</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="G105" s="1">
+        <v>8.770999999999999</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="G106" s="1">
+        <v>11.9575</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1">
+        <v>9.6515000000000004</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>9.7835000000000001</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>8</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="G109" s="1">
+        <v>7.4344999999999999</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>9.7465000000000011</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1">
+        <v>6.8435000000000006</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="G112" s="1">
+        <v>8.9730000000000008</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+      <c r="G113" s="1">
+        <v>8.9359999999999999</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
